--- a/tables/internships.xlsx
+++ b/tables/internships.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkuch\WiSig Dropbox\kiran kuchi\work\WiSig\wisigppts\FC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{0EA400AB-C03A-0F49-A5F6-220C41C4BFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{6F8DA0AC-F36F-8942-B490-FE89451BCC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Syllabus</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>3 months</t>
+  </si>
+  <si>
+    <t>Scientific Computing</t>
+  </si>
+  <si>
+    <t>Math computing for engineers</t>
   </si>
 </sst>
 </file>
@@ -496,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B81D31-379E-B84C-A51B-FE182D778EF4}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -539,44 +545,58 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
     </row>

--- a/tables/internships.xlsx
+++ b/tables/internships.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkuch\WiSig Dropbox\kiran kuchi\work\WiSig\wisigppts\FC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{6F8DA0AC-F36F-8942-B490-FE89451BCC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{26DA5E91-A46E-EA4D-9D0F-F78F2869CABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="31">
   <si>
     <t>Syllabus</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t>Math computing for engineers</t>
+  </si>
+  <si>
+    <t>1 semester</t>
+  </si>
+  <si>
+    <t>Semester Project</t>
+  </si>
+  <si>
+    <t>As per project requirement</t>
   </si>
 </sst>
 </file>
@@ -502,17 +511,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B81D31-379E-B84C-A51B-FE182D778EF4}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.2109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.234375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.47265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.0234375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.6796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" style="6" customWidth="1"/>
     <col min="4" max="4" width="10.89453125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -600,6 +609,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
